--- a/pred_ohlcv/54_21/2020-01-22 ZEC ohlcv.xlsx
+++ b/pred_ohlcv/54_21/2020-01-22 ZEC ohlcv.xlsx
@@ -444,7 +444,7 @@
         <v>193.49702064</v>
       </c>
       <c r="H2">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3" spans="1:8">
@@ -470,7 +470,7 @@
         <v>193.45622064</v>
       </c>
       <c r="H3">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="4" spans="1:8">
@@ -496,7 +496,7 @@
         <v>192.38892064</v>
       </c>
       <c r="H4">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="5" spans="1:8">
@@ -730,7 +730,7 @@
         <v>194.65677381</v>
       </c>
       <c r="H13">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="14" spans="1:8">
@@ -756,7 +756,7 @@
         <v>192.32417381</v>
       </c>
       <c r="H14">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="15" spans="1:8">
@@ -782,7 +782,7 @@
         <v>192.32417381</v>
       </c>
       <c r="H15">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="16" spans="1:8">
@@ -808,7 +808,7 @@
         <v>191.47417381</v>
       </c>
       <c r="H16">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="17" spans="1:8">
@@ -834,7 +834,7 @@
         <v>192.47417381</v>
       </c>
       <c r="H17">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="18" spans="1:8">
@@ -860,7 +860,7 @@
         <v>139.37027381</v>
       </c>
       <c r="H18">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="19" spans="1:8">
@@ -1380,7 +1380,7 @@
         <v>88.17597381</v>
       </c>
       <c r="H38">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="39" spans="1:8">
@@ -1406,7 +1406,7 @@
         <v>88.17597381</v>
       </c>
       <c r="H39">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="40" spans="1:8">
@@ -1458,7 +1458,7 @@
         <v>77.99917381</v>
       </c>
       <c r="H41">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="42" spans="1:8">
@@ -1484,7 +1484,7 @@
         <v>77.99917381</v>
       </c>
       <c r="H42">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="43" spans="1:8">
@@ -4084,7 +4084,7 @@
         <v>-44.95661720000003</v>
       </c>
       <c r="H142">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="143" spans="1:8">
@@ -4136,7 +4136,7 @@
         <v>-43.07971720000003</v>
       </c>
       <c r="H144">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="145" spans="1:8">
@@ -4162,7 +4162,7 @@
         <v>-43.07971720000003</v>
       </c>
       <c r="H145">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="146" spans="1:8">
@@ -4188,7 +4188,7 @@
         <v>-55.59091720000004</v>
       </c>
       <c r="H146">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="147" spans="1:8">
@@ -4214,7 +4214,7 @@
         <v>-37.39661720000004</v>
       </c>
       <c r="H147">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="148" spans="1:8">
@@ -4864,7 +4864,7 @@
         <v>-82.28181720000003</v>
       </c>
       <c r="H172">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="173" spans="1:8">
@@ -4890,7 +4890,7 @@
         <v>-82.28181720000003</v>
       </c>
       <c r="H173">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="174" spans="1:8">
@@ -4916,7 +4916,7 @@
         <v>-82.28181720000003</v>
       </c>
       <c r="H174">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="175" spans="1:8">
@@ -4942,7 +4942,7 @@
         <v>-78.98261720000004</v>
       </c>
       <c r="H175">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="176" spans="1:8">
@@ -4968,7 +4968,7 @@
         <v>-47.51361720000003</v>
       </c>
       <c r="H176">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="177" spans="1:8">
@@ -4994,7 +4994,7 @@
         <v>59.54238279999996</v>
       </c>
       <c r="H177">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="178" spans="1:8">
@@ -5020,7 +5020,7 @@
         <v>59.54238279999996</v>
       </c>
       <c r="H178">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="179" spans="1:8">
@@ -5098,7 +5098,7 @@
         <v>45.76698279999997</v>
       </c>
       <c r="H181">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="182" spans="1:8">
@@ -5124,7 +5124,7 @@
         <v>44.14918279999996</v>
       </c>
       <c r="H182">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="183" spans="1:8">
@@ -5150,7 +5150,7 @@
         <v>44.14918279999996</v>
       </c>
       <c r="H183">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="184" spans="1:8">
@@ -5176,7 +5176,7 @@
         <v>43.74118279999996</v>
       </c>
       <c r="H184">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="185" spans="1:8">
@@ -5202,7 +5202,7 @@
         <v>43.74118279999996</v>
       </c>
       <c r="H185">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="186" spans="1:8">
@@ -5228,7 +5228,7 @@
         <v>43.74118279999996</v>
       </c>
       <c r="H186">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="187" spans="1:8">
@@ -5384,7 +5384,7 @@
         <v>49.52528279999996</v>
       </c>
       <c r="H192">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="193" spans="1:8">
@@ -5410,7 +5410,7 @@
         <v>49.52528279999996</v>
       </c>
       <c r="H193">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="194" spans="1:8">
@@ -5436,7 +5436,7 @@
         <v>16.43798279999996</v>
       </c>
       <c r="H194">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="195" spans="1:8">
@@ -5644,7 +5644,7 @@
         <v>-65.51771720000005</v>
       </c>
       <c r="H202">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="203" spans="1:8">
@@ -5696,7 +5696,7 @@
         <v>-45.85931720000006</v>
       </c>
       <c r="H204">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="205" spans="1:8">
@@ -5722,7 +5722,7 @@
         <v>-45.84221720000006</v>
       </c>
       <c r="H205">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="206" spans="1:8">
@@ -5852,7 +5852,7 @@
         <v>-181.3934172</v>
       </c>
       <c r="H210">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="211" spans="1:8">
@@ -5982,7 +5982,7 @@
         <v>-181.4898172</v>
       </c>
       <c r="H215">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="216" spans="1:8">
@@ -6008,7 +6008,7 @@
         <v>-195.7343172</v>
       </c>
       <c r="H216">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="217" spans="1:8">
@@ -6034,7 +6034,7 @@
         <v>-192.7343172</v>
       </c>
       <c r="H217">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="218" spans="1:8">
@@ -6060,7 +6060,7 @@
         <v>-190.7711172</v>
       </c>
       <c r="H218">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="219" spans="1:8">
@@ -6216,7 +6216,7 @@
         <v>-186.9504172</v>
       </c>
       <c r="H224">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="225" spans="1:8">
@@ -6242,7 +6242,7 @@
         <v>-186.9504172</v>
       </c>
       <c r="H225">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="226" spans="1:8">
@@ -6268,7 +6268,7 @@
         <v>-186.9504172</v>
       </c>
       <c r="H226">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="227" spans="1:8">
@@ -6294,7 +6294,7 @@
         <v>-186.9504172</v>
       </c>
       <c r="H227">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="228" spans="1:8">
@@ -6320,7 +6320,7 @@
         <v>-185.6771172</v>
       </c>
       <c r="H228">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="229" spans="1:8">
@@ -6346,7 +6346,7 @@
         <v>-185.6771172</v>
       </c>
       <c r="H229">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="230" spans="1:8">
@@ -6398,7 +6398,7 @@
         <v>-182.4227172</v>
       </c>
       <c r="H231">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="232" spans="1:8">
@@ -6684,7 +6684,7 @@
         <v>-156.74745573</v>
       </c>
       <c r="H242">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="243" spans="1:8">
@@ -6710,7 +6710,7 @@
         <v>-156.72529426</v>
       </c>
       <c r="H243">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="244" spans="1:8">
@@ -6736,7 +6736,7 @@
         <v>-156.70879426</v>
       </c>
       <c r="H244">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="245" spans="1:8">
@@ -6762,7 +6762,7 @@
         <v>-156.70879426</v>
       </c>
       <c r="H245">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="246" spans="1:8">
@@ -6788,7 +6788,7 @@
         <v>-156.70879426</v>
       </c>
       <c r="H246">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="247" spans="1:8">
@@ -6814,7 +6814,7 @@
         <v>-156.70879426</v>
       </c>
       <c r="H247">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="248" spans="1:8">
@@ -6840,7 +6840,7 @@
         <v>-156.70879426</v>
       </c>
       <c r="H248">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="249" spans="1:8">
@@ -6866,7 +6866,7 @@
         <v>-158.64739426</v>
       </c>
       <c r="H249">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="250" spans="1:8">
@@ -6892,7 +6892,7 @@
         <v>-174.02709426</v>
       </c>
       <c r="H250">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="251" spans="1:8">
@@ -6918,7 +6918,7 @@
         <v>-174.02709426</v>
       </c>
       <c r="H251">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="252" spans="1:8">
@@ -6944,7 +6944,7 @@
         <v>-174.02709426</v>
       </c>
       <c r="H252">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="253" spans="1:8">
@@ -6970,7 +6970,7 @@
         <v>-176.02709426</v>
       </c>
       <c r="H253">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="254" spans="1:8">
@@ -6996,7 +6996,7 @@
         <v>-174.84327781</v>
       </c>
       <c r="H254">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="255" spans="1:8">
@@ -7022,7 +7022,7 @@
         <v>-191.99677781</v>
       </c>
       <c r="H255">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="256" spans="1:8">
@@ -7048,7 +7048,7 @@
         <v>-191.94787781</v>
       </c>
       <c r="H256">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="257" spans="1:8">
@@ -7074,7 +7074,7 @@
         <v>-191.93187781</v>
       </c>
       <c r="H257">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="258" spans="1:8">
@@ -7100,7 +7100,7 @@
         <v>-191.37337781</v>
       </c>
       <c r="H258">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="259" spans="1:8">
@@ -7126,7 +7126,7 @@
         <v>-208.52687781</v>
       </c>
       <c r="H259">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="260" spans="1:8">
@@ -7152,7 +7152,7 @@
         <v>-208.50997781</v>
       </c>
       <c r="H260">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="261" spans="1:8">
@@ -7178,7 +7178,7 @@
         <v>-208.50997781</v>
       </c>
       <c r="H261">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="262" spans="1:8">
@@ -7204,7 +7204,7 @@
         <v>-209.50997781</v>
       </c>
       <c r="H262">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="263" spans="1:8">
@@ -7230,7 +7230,7 @@
         <v>-210.15997781</v>
       </c>
       <c r="H263">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="264" spans="1:8">
@@ -7256,7 +7256,7 @@
         <v>-64.07947781000004</v>
       </c>
       <c r="H264">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="265" spans="1:8">
@@ -7282,7 +7282,7 @@
         <v>-107.89117781</v>
       </c>
       <c r="H265">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="266" spans="1:8">
@@ -7308,7 +7308,7 @@
         <v>-107.57267781</v>
       </c>
       <c r="H266">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="267" spans="1:8">
@@ -7334,7 +7334,7 @@
         <v>-107.57267781</v>
       </c>
       <c r="H267">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="268" spans="1:8">
@@ -7360,7 +7360,7 @@
         <v>-102.20097781</v>
       </c>
       <c r="H268">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="269" spans="1:8">

--- a/pred_ohlcv/54_21/2020-01-22 ZEC ohlcv.xlsx
+++ b/pred_ohlcv/54_21/2020-01-22 ZEC ohlcv.xlsx
@@ -444,7 +444,7 @@
         <v>193.49702064</v>
       </c>
       <c r="H2">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="3" spans="1:8">
@@ -470,7 +470,7 @@
         <v>193.45622064</v>
       </c>
       <c r="H3">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="4" spans="1:8">
@@ -496,7 +496,7 @@
         <v>192.38892064</v>
       </c>
       <c r="H4">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="5" spans="1:8">
@@ -626,7 +626,7 @@
         <v>193.40497381</v>
       </c>
       <c r="H9">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="10" spans="1:8">
@@ -652,7 +652,7 @@
         <v>193.40497381</v>
       </c>
       <c r="H10">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="11" spans="1:8">
@@ -704,7 +704,7 @@
         <v>193.40497381</v>
       </c>
       <c r="H12">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="13" spans="1:8">
@@ -730,7 +730,7 @@
         <v>194.65677381</v>
       </c>
       <c r="H13">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="14" spans="1:8">
@@ -756,7 +756,7 @@
         <v>192.32417381</v>
       </c>
       <c r="H14">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="15" spans="1:8">
@@ -782,7 +782,7 @@
         <v>192.32417381</v>
       </c>
       <c r="H15">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="16" spans="1:8">
@@ -808,7 +808,7 @@
         <v>191.47417381</v>
       </c>
       <c r="H16">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="17" spans="1:8">
@@ -834,7 +834,7 @@
         <v>192.47417381</v>
       </c>
       <c r="H17">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="18" spans="1:8">
@@ -860,7 +860,7 @@
         <v>139.37027381</v>
       </c>
       <c r="H18">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="19" spans="1:8">
@@ -886,7 +886,7 @@
         <v>139.37027381</v>
       </c>
       <c r="H19">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="20" spans="1:8">
@@ -1276,7 +1276,7 @@
         <v>95.27027381000001</v>
       </c>
       <c r="H34">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="35" spans="1:8">
@@ -1302,7 +1302,7 @@
         <v>88.39527381000001</v>
       </c>
       <c r="H35">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="36" spans="1:8">
@@ -1328,7 +1328,7 @@
         <v>88.70177381000001</v>
       </c>
       <c r="H36">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="37" spans="1:8">
@@ -1354,7 +1354,7 @@
         <v>88.98677381</v>
       </c>
       <c r="H37">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="38" spans="1:8">
@@ -1380,7 +1380,7 @@
         <v>88.17597381</v>
       </c>
       <c r="H38">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="39" spans="1:8">
@@ -1406,7 +1406,7 @@
         <v>88.17597381</v>
       </c>
       <c r="H39">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="40" spans="1:8">
@@ -1432,7 +1432,7 @@
         <v>87.38247381000001</v>
       </c>
       <c r="H40">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="41" spans="1:8">
@@ -1458,7 +1458,7 @@
         <v>77.99917381</v>
       </c>
       <c r="H41">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="42" spans="1:8">
@@ -1484,7 +1484,7 @@
         <v>77.99917381</v>
       </c>
       <c r="H42">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="43" spans="1:8">
@@ -1510,7 +1510,7 @@
         <v>71.17407381</v>
       </c>
       <c r="H43">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="44" spans="1:8">
@@ -1640,7 +1640,7 @@
         <v>74.90457380999999</v>
       </c>
       <c r="H48">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="49" spans="1:8">
@@ -1666,7 +1666,7 @@
         <v>74.90457380999999</v>
       </c>
       <c r="H49">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="50" spans="1:8">
@@ -1692,7 +1692,7 @@
         <v>74.90457380999999</v>
       </c>
       <c r="H50">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="51" spans="1:8">
@@ -1718,7 +1718,7 @@
         <v>75.22345499999999</v>
       </c>
       <c r="H51">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="52" spans="1:8">
@@ -1744,7 +1744,7 @@
         <v>72.47995499999999</v>
       </c>
       <c r="H52">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="53" spans="1:8">
@@ -1770,7 +1770,7 @@
         <v>67.47995499999999</v>
       </c>
       <c r="H53">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="54" spans="1:8">
@@ -1796,7 +1796,7 @@
         <v>67.47995499999999</v>
       </c>
       <c r="H54">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="55" spans="1:8">
@@ -1822,7 +1822,7 @@
         <v>74.04355499999998</v>
       </c>
       <c r="H55">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="56" spans="1:8">
@@ -1848,7 +1848,7 @@
         <v>74.04355499999998</v>
       </c>
       <c r="H56">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="57" spans="1:8">
@@ -1874,7 +1874,7 @@
         <v>74.36235499999998</v>
       </c>
       <c r="H57">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="58" spans="1:8">
@@ -1900,7 +1900,7 @@
         <v>57.01055499999998</v>
       </c>
       <c r="H58">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="59" spans="1:8">
@@ -1926,7 +1926,7 @@
         <v>45.97085499999999</v>
       </c>
       <c r="H59">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="60" spans="1:8">
@@ -1952,7 +1952,7 @@
         <v>13.89055499999998</v>
       </c>
       <c r="H60">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="61" spans="1:8">
@@ -1978,7 +1978,7 @@
         <v>29.29055499999998</v>
       </c>
       <c r="H61">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="62" spans="1:8">
@@ -2004,7 +2004,7 @@
         <v>29.39055499999998</v>
       </c>
       <c r="H62">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="63" spans="1:8">
@@ -2030,7 +2030,7 @@
         <v>30.58745499999998</v>
       </c>
       <c r="H63">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="64" spans="1:8">
@@ -2056,7 +2056,7 @@
         <v>29.73745499999998</v>
       </c>
       <c r="H64">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="65" spans="1:8">
@@ -2082,7 +2082,7 @@
         <v>-65.37104500000002</v>
       </c>
       <c r="H65">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="66" spans="1:8">
@@ -2108,7 +2108,7 @@
         <v>-65.37104500000002</v>
       </c>
       <c r="H66">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="67" spans="1:8">
@@ -2888,7 +2888,7 @@
         <v>-12.51774500000002</v>
       </c>
       <c r="H96">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="97" spans="1:8">
@@ -2914,7 +2914,7 @@
         <v>-12.51774500000002</v>
       </c>
       <c r="H97">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="98" spans="1:8">
@@ -2940,7 +2940,7 @@
         <v>-18.44774500000002</v>
       </c>
       <c r="H98">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="99" spans="1:8">
@@ -2966,7 +2966,7 @@
         <v>-15.11044500000002</v>
       </c>
       <c r="H99">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="100" spans="1:8">
@@ -2992,7 +2992,7 @@
         <v>-15.19031720000002</v>
       </c>
       <c r="H100">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="101" spans="1:8">
@@ -3018,7 +3018,7 @@
         <v>-12.10661720000002</v>
       </c>
       <c r="H101">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="102" spans="1:8">
@@ -3044,7 +3044,7 @@
         <v>-28.10661720000002</v>
       </c>
       <c r="H102">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="103" spans="1:8">
@@ -3070,7 +3070,7 @@
         <v>-30.92611720000002</v>
       </c>
       <c r="H103">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="104" spans="1:8">
@@ -4084,7 +4084,7 @@
         <v>-44.95661720000003</v>
       </c>
       <c r="H142">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="143" spans="1:8">
@@ -4136,7 +4136,7 @@
         <v>-43.07971720000003</v>
       </c>
       <c r="H144">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="145" spans="1:8">
@@ -4162,7 +4162,7 @@
         <v>-43.07971720000003</v>
       </c>
       <c r="H145">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="146" spans="1:8">
@@ -4188,7 +4188,7 @@
         <v>-55.59091720000004</v>
       </c>
       <c r="H146">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="147" spans="1:8">
@@ -4214,7 +4214,7 @@
         <v>-37.39661720000004</v>
       </c>
       <c r="H147">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="148" spans="1:8">
@@ -4864,7 +4864,7 @@
         <v>-82.28181720000003</v>
       </c>
       <c r="H172">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="173" spans="1:8">
@@ -4890,7 +4890,7 @@
         <v>-82.28181720000003</v>
       </c>
       <c r="H173">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="174" spans="1:8">
@@ -4916,7 +4916,7 @@
         <v>-82.28181720000003</v>
       </c>
       <c r="H174">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="175" spans="1:8">
@@ -4942,7 +4942,7 @@
         <v>-78.98261720000004</v>
       </c>
       <c r="H175">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="176" spans="1:8">
@@ -4968,7 +4968,7 @@
         <v>-47.51361720000003</v>
       </c>
       <c r="H176">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="177" spans="1:8">
@@ -4994,7 +4994,7 @@
         <v>59.54238279999996</v>
       </c>
       <c r="H177">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="178" spans="1:8">
@@ -5020,7 +5020,7 @@
         <v>59.54238279999996</v>
       </c>
       <c r="H178">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="179" spans="1:8">
@@ -5098,7 +5098,7 @@
         <v>45.76698279999997</v>
       </c>
       <c r="H181">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="182" spans="1:8">
@@ -5124,7 +5124,7 @@
         <v>44.14918279999996</v>
       </c>
       <c r="H182">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="183" spans="1:8">
@@ -5150,7 +5150,7 @@
         <v>44.14918279999996</v>
       </c>
       <c r="H183">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="184" spans="1:8">
@@ -5176,7 +5176,7 @@
         <v>43.74118279999996</v>
       </c>
       <c r="H184">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="185" spans="1:8">
@@ -5202,7 +5202,7 @@
         <v>43.74118279999996</v>
       </c>
       <c r="H185">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="186" spans="1:8">
@@ -5228,7 +5228,7 @@
         <v>43.74118279999996</v>
       </c>
       <c r="H186">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="187" spans="1:8">
@@ -5384,7 +5384,7 @@
         <v>49.52528279999996</v>
       </c>
       <c r="H192">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="193" spans="1:8">
@@ -5410,7 +5410,7 @@
         <v>49.52528279999996</v>
       </c>
       <c r="H193">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="194" spans="1:8">
@@ -5436,7 +5436,7 @@
         <v>16.43798279999996</v>
       </c>
       <c r="H194">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="195" spans="1:8">
@@ -6684,7 +6684,7 @@
         <v>-156.74745573</v>
       </c>
       <c r="H242">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="243" spans="1:8">
@@ -6710,7 +6710,7 @@
         <v>-156.72529426</v>
       </c>
       <c r="H243">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="244" spans="1:8">
@@ -6736,7 +6736,7 @@
         <v>-156.70879426</v>
       </c>
       <c r="H244">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="245" spans="1:8">
@@ -6762,7 +6762,7 @@
         <v>-156.70879426</v>
       </c>
       <c r="H245">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="246" spans="1:8">
@@ -6788,7 +6788,7 @@
         <v>-156.70879426</v>
       </c>
       <c r="H246">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="247" spans="1:8">
@@ -6814,7 +6814,7 @@
         <v>-156.70879426</v>
       </c>
       <c r="H247">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="248" spans="1:8">
@@ -6840,7 +6840,7 @@
         <v>-156.70879426</v>
       </c>
       <c r="H248">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="249" spans="1:8">
@@ -6866,7 +6866,7 @@
         <v>-158.64739426</v>
       </c>
       <c r="H249">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="250" spans="1:8">
@@ -6892,7 +6892,7 @@
         <v>-174.02709426</v>
       </c>
       <c r="H250">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="251" spans="1:8">
@@ -6918,7 +6918,7 @@
         <v>-174.02709426</v>
       </c>
       <c r="H251">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="252" spans="1:8">
@@ -6944,7 +6944,7 @@
         <v>-174.02709426</v>
       </c>
       <c r="H252">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="253" spans="1:8">
@@ -6970,7 +6970,7 @@
         <v>-176.02709426</v>
       </c>
       <c r="H253">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="254" spans="1:8">
@@ -6996,7 +6996,7 @@
         <v>-174.84327781</v>
       </c>
       <c r="H254">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="255" spans="1:8">
@@ -7022,7 +7022,7 @@
         <v>-191.99677781</v>
       </c>
       <c r="H255">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="256" spans="1:8">
@@ -7048,7 +7048,7 @@
         <v>-191.94787781</v>
       </c>
       <c r="H256">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="257" spans="1:8">
@@ -7074,7 +7074,7 @@
         <v>-191.93187781</v>
       </c>
       <c r="H257">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="258" spans="1:8">
@@ -7100,7 +7100,7 @@
         <v>-191.37337781</v>
       </c>
       <c r="H258">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="259" spans="1:8">
@@ -7126,7 +7126,7 @@
         <v>-208.52687781</v>
       </c>
       <c r="H259">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="260" spans="1:8">
@@ -7152,7 +7152,7 @@
         <v>-208.50997781</v>
       </c>
       <c r="H260">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="261" spans="1:8">
@@ -7178,7 +7178,7 @@
         <v>-208.50997781</v>
       </c>
       <c r="H261">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="262" spans="1:8">
@@ -7204,7 +7204,7 @@
         <v>-209.50997781</v>
       </c>
       <c r="H262">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="263" spans="1:8">
@@ -7230,7 +7230,7 @@
         <v>-210.15997781</v>
       </c>
       <c r="H263">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="264" spans="1:8">
@@ -7256,7 +7256,7 @@
         <v>-64.07947781000004</v>
       </c>
       <c r="H264">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="265" spans="1:8">
@@ -7282,7 +7282,7 @@
         <v>-107.89117781</v>
       </c>
       <c r="H265">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="266" spans="1:8">
@@ -7308,7 +7308,7 @@
         <v>-107.57267781</v>
       </c>
       <c r="H266">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="267" spans="1:8">
@@ -7334,7 +7334,7 @@
         <v>-107.57267781</v>
       </c>
       <c r="H267">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="268" spans="1:8">
@@ -7360,7 +7360,7 @@
         <v>-102.20097781</v>
       </c>
       <c r="H268">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="269" spans="1:8">
@@ -7438,7 +7438,7 @@
         <v>-139.77267781</v>
       </c>
       <c r="H271">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="272" spans="1:8">
